--- a/ControleLoja/docs/Levantamento_Produtos.xlsx
+++ b/ControleLoja/docs/Levantamento_Produtos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>Categoria</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Descricao</t>
   </si>
   <si>
-    <t>ID_Categoria</t>
-  </si>
-  <si>
     <t>Especializações</t>
   </si>
   <si>
@@ -198,13 +195,34 @@
     <t>Colecao_ID</t>
   </si>
   <si>
-    <t>Cor e Material é * : *</t>
-  </si>
-  <si>
-    <t>Foto é *:1</t>
-  </si>
-  <si>
     <t>ID_tipos_acessorios</t>
+  </si>
+  <si>
+    <t>Cor-Categoria</t>
+  </si>
+  <si>
+    <t>Marca-Categoria</t>
+  </si>
+  <si>
+    <t>*:*</t>
+  </si>
+  <si>
+    <t>Cor-Material</t>
+  </si>
+  <si>
+    <t>*:1</t>
+  </si>
+  <si>
+    <t>Foto-Produto</t>
+  </si>
+  <si>
+    <t>Material-Categoria</t>
+  </si>
+  <si>
+    <t>Tamanhos-Categoria</t>
+  </si>
+  <si>
+    <t>Colecao-Categoria</t>
   </si>
 </sst>
 </file>
@@ -307,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -589,19 +607,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -725,114 +730,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -845,80 +763,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -926,40 +778,183 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1259,24 +1254,23 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1286,839 +1280,857 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="71" t="s">
+      <c r="K1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="L1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="M1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="N1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="O1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="P1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="Q1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="R1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="14" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="64"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="69"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="65"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="66"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="71"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="64"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="69"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="65"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="70"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="65"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="70"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="65"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="70"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="65"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="70"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="66"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="71"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="64"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="69"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="65"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="70"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="65"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="70"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="65"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="70"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="65"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="66"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="71"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="67"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="72"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="68"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="73"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="68"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="73"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="69"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="74"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="H26" s="56" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="G26" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A27" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="G27" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="85"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A27" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="H27" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A28" s="36" t="s">
+      <c r="H28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A29" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="G29" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="36" t="s">
+      <c r="C30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="D30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="G30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A29" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="H29" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A30" s="36" t="s">
+    </row>
+    <row r="31" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A31" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="G31" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="82"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="36" t="s">
+      <c r="C32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="D32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="G32" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="44" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A33" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="G33" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="80"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A31" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="H31" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="55"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A32" s="36" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A35" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A36" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A33" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="H33" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="52"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A34" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A35" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A36" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>61</v>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="8:8">
-      <c r="H52" s="42"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="8:8">
-      <c r="H53" s="42"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="8:8">
-      <c r="H54" s="42"/>
+      <c r="H54" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="86">
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="A13:R13"/>
     <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A31:C31"/>
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="R14:R19"/>
     <mergeCell ref="R7:R12"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="I21:I24"/>
     <mergeCell ref="Q7:Q12"/>
     <mergeCell ref="P7:P12"/>
     <mergeCell ref="O7:O12"/>
     <mergeCell ref="O14:O19"/>
     <mergeCell ref="P14:P19"/>
     <mergeCell ref="Q14:Q19"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="N21:N24"/>
     <mergeCell ref="O21:O24"/>
     <mergeCell ref="N14:N19"/>
     <mergeCell ref="N7:N12"/>
     <mergeCell ref="O3:O5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="M21:M24"/>
     <mergeCell ref="M14:M19"/>
     <mergeCell ref="M7:M12"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="K14:K19"/>
-    <mergeCell ref="K7:K12"/>
-    <mergeCell ref="L14:L19"/>
-    <mergeCell ref="L7:L12"/>
-    <mergeCell ref="L21:L24"/>
     <mergeCell ref="G21:G24"/>
     <mergeCell ref="G14:G19"/>
     <mergeCell ref="G7:G12"/>
@@ -2130,34 +2142,40 @@
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="E7:E12"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="H14:H19"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="I14:I19"/>
-    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="K14:K19"/>
+    <mergeCell ref="K7:K12"/>
+    <mergeCell ref="L14:L19"/>
+    <mergeCell ref="L7:L12"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M3:M5"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B14:B19"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:D24"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
